--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>表名</t>
   </si>
@@ -115,6 +115,9 @@
     <t>Ctype（必修/选修）</t>
   </si>
   <si>
+    <t>Uno（授课老师）</t>
+  </si>
+  <si>
     <t>Work</t>
   </si>
   <si>
@@ -127,10 +130,82 @@
     <t>Cno（外键，from course）</t>
   </si>
   <si>
-    <t>Wprogress（？）</t>
-  </si>
-  <si>
-    <t>Wactive（？）</t>
+    <t>Wprogress（有多少人做了）</t>
+  </si>
+  <si>
+    <t>Wstart（开始时间）</t>
+  </si>
+  <si>
+    <t>Wover（结束时间）</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Wno(ID)</t>
+  </si>
+  <si>
+    <t>State(学生是否提交作业)</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>请求数据格式 (Object Structure)</t>
+  </si>
+  <si>
+    <t>返回数据</t>
+  </si>
+  <si>
+    <t>rul</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>查看作业</t>
+  </si>
+  <si>
+    <t>提交作业</t>
+  </si>
+  <si>
+    <t>个人信息（待定）</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>查看课</t>
+  </si>
+  <si>
+    <t>开课</t>
+  </si>
+  <si>
+    <t>删课</t>
+  </si>
+  <si>
+    <t>改课程名称</t>
+  </si>
+  <si>
+    <t>布置作业</t>
+  </si>
+  <si>
+    <t>修改作业</t>
+  </si>
+  <si>
+    <t>删除作业</t>
   </si>
   <si>
     <t>前后端对应</t>
@@ -207,6 +282,12 @@
   <si>
     <t>Wno（ID）/
 Wtitle（作业标题）/Cname(课程名)</t>
+  </si>
+  <si>
+    <t>Wprogress（？）</t>
+  </si>
+  <si>
+    <t>Wactive（？）</t>
   </si>
 </sst>
 </file>
@@ -219,8 +300,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -707,141 +803,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1158,17 +1261,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.3240740740741" customWidth="1"/>
     <col min="2" max="2" width="23.7592592592593" customWidth="1"/>
-    <col min="3" max="3" width="17.212962962963" customWidth="1"/>
+    <col min="3" max="3" width="40.7685185185185" customWidth="1"/>
     <col min="4" max="4" width="24.7222222222222" customWidth="1"/>
     <col min="5" max="5" width="18.4722222222222" customWidth="1"/>
     <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
@@ -1268,206 +1371,379 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="43.2" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="43.2" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>表名</t>
   </si>
@@ -169,40 +169,70 @@
     <t>登录</t>
   </si>
   <si>
+    <t>role，username，password，name，email</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
+    <t>role，username，password</t>
+  </si>
+  <si>
     <t>学生</t>
   </si>
   <si>
     <t>查看作业</t>
   </si>
   <si>
+    <t>role，studentId，query</t>
+  </si>
+  <si>
     <t>提交作业</t>
   </si>
   <si>
+    <t>role，studentId，writecheck</t>
+  </si>
+  <si>
     <t>个人信息（待定）</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
     <t>老师</t>
   </si>
   <si>
     <t>查看课</t>
   </si>
   <si>
+    <t>role，query</t>
+  </si>
+  <si>
     <t>开课</t>
   </si>
   <si>
+    <t>role，courseId，courseName，major，credits，type，teacher</t>
+  </si>
+  <si>
     <t>删课</t>
   </si>
   <si>
-    <t>改课程名称</t>
+    <t>role，courseId</t>
+  </si>
+  <si>
+    <t>改课程信息</t>
   </si>
   <si>
     <t>布置作业</t>
   </si>
   <si>
+    <t>role，title，course，progress</t>
+  </si>
+  <si>
     <t>修改作业</t>
+  </si>
+  <si>
+    <t>role，workId</t>
   </si>
   <si>
     <t>删除作业</t>
@@ -940,10 +970,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,14 +1294,14 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.3240740740741" customWidth="1"/>
     <col min="2" max="2" width="23.7592592592593" customWidth="1"/>
-    <col min="3" max="3" width="40.7685185185185" customWidth="1"/>
+    <col min="3" max="3" width="72.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="24.7222222222222" customWidth="1"/>
     <col min="5" max="5" width="18.4722222222222" customWidth="1"/>
     <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
@@ -1400,182 +1430,225 @@
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" ht="19" customHeight="1" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1584,19 +1657,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1616,34 +1689,34 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -1669,28 +1742,28 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
@@ -1710,28 +1783,28 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="43.2" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
@@ -1740,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -963,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,9 +971,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1294,7 +1291,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1470,7 +1467,7 @@
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
@@ -1484,7 +1481,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
@@ -1496,7 +1493,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
@@ -1510,7 +1507,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
@@ -1522,7 +1519,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -1534,7 +1531,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:12">
       <c r="A13" s="1" t="s">
@@ -1548,7 +1545,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -1560,7 +1557,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
@@ -1572,7 +1569,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
@@ -1584,7 +1581,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -1596,7 +1593,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
@@ -1608,7 +1605,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
@@ -1620,7 +1617,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
@@ -1632,7 +1629,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -1644,10 +1641,10 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="1"/>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="34" ht="43.2" spans="1:6">
       <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="1" t="s">

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\前端技术的学习\个人存储\项目\数据库\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B72B5F-903F-43C2-BBC0-336C00D88027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>表名</t>
   </si>
@@ -164,24 +160,69 @@
     <t>返回数据</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
     <t>游客</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
+    <t>username，password</t>
+  </si>
+  <si>
+    <t>role, id</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
+    <t>role，username，password，name，email</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
     <t>学生</t>
   </si>
   <si>
     <t>查看作业</t>
   </si>
   <si>
+    <t>role，studentId，query</t>
+  </si>
+  <si>
+    <t>total,list</t>
+  </si>
+  <si>
+    <t>/homework</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>提交作业</t>
   </si>
   <si>
+    <t>role，studentId，writecheck</t>
+  </si>
+  <si>
+    <t>成功信息(比如"提交成功"这样的)</t>
+  </si>
+  <si>
+    <t>/homework/submit</t>
+  </si>
+  <si>
     <t>个人信息（待定）</t>
   </si>
   <si>
@@ -191,21 +232,102 @@
     <t>老师</t>
   </si>
   <si>
+    <t>查看课程</t>
+  </si>
+  <si>
+    <t>role，query</t>
+  </si>
+  <si>
+    <t>/course</t>
+  </si>
+  <si>
+    <t>增加课程</t>
+  </si>
+  <si>
     <t>role，courseId，courseName，major，credits，type，teacher</t>
   </si>
   <si>
+    <t>成功信息(比如"创建成功"这样的)</t>
+  </si>
+  <si>
+    <t>删除课程</t>
+  </si>
+  <si>
     <t>role，courseId</t>
   </si>
   <si>
+    <t>成功信息(比如"删除成功"这样的)</t>
+  </si>
+  <si>
+    <t>/course/:courseId</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>编辑课程</t>
+  </si>
+  <si>
+    <t>成功信息(比如"修改成功"这样的)</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>查看学生</t>
+  </si>
+  <si>
+    <t>role，query,page,pageSize</t>
+  </si>
+  <si>
+    <t>/student</t>
+  </si>
+  <si>
+    <t>增加学生</t>
+  </si>
+  <si>
+    <t>role，studentId，name，major，gender，phone，avatar</t>
+  </si>
+  <si>
+    <t>删除学生</t>
+  </si>
+  <si>
+    <t>role，studentId</t>
+  </si>
+  <si>
+    <t>/student/:studentId</t>
+  </si>
+  <si>
+    <t>编辑学生</t>
+  </si>
+  <si>
     <t>布置作业</t>
   </si>
   <si>
+    <t>role，title，course，progress</t>
+  </si>
+  <si>
+    <t>删除作业</t>
+  </si>
+  <si>
     <t>role，workId</t>
   </si>
   <si>
+    <t>/homework/:workId</t>
+  </si>
+  <si>
+    <t>修改作业</t>
+  </si>
+  <si>
     <t>前后端对应</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>avater</t>
+  </si>
+  <si>
     <t>Auth</t>
   </si>
   <si>
@@ -224,6 +346,9 @@
     <t>Student</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>query</t>
   </si>
   <si>
@@ -236,12 +361,6 @@
     <t>major</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>avater</t>
-  </si>
-  <si>
     <t>Uno(ID)/Uname(姓名)</t>
   </si>
   <si>
@@ -252,9 +371,6 @@
   </si>
   <si>
     <t>credit</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>Cno(ID)/Cname（课程名）</t>
@@ -283,185 +399,19 @@
   </si>
   <si>
     <t>Wactive（？）</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role, id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>total,list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/homework</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功信息(比如"提交成功"这样的)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，query</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，courseId，courseName，major，credits，type，teacher</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功信息(比如"创建成功"这样的)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功信息(比如"删除成功"这样的)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功信息(比如"修改成功"这样的)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除作业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，workId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改作业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看学生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，query,page,pageSize</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/student</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，studentId，writecheck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加学生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除学生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑学生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，studentId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加课程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除课程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，studentId，name，major，gender，phone，avatar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，studentId，name，major，gender，phone，avatar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，username，password，name，email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>username，password</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，studentId，query</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/homework/submit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>role，title，course，progress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/:courseId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/student/:studentId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/homework/:workId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +421,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -485,36 +442,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -537,9 +803,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -554,24 +1062,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -821,34 +1373,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="72.25" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="31.962962962963" customWidth="1"/>
+    <col min="5" max="5" width="22.7314814814815" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="18.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -918,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -944,7 +1496,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -970,7 +1522,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -990,7 +1542,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1003,357 +1555,357 @@
       <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="18.95" customHeight="1" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
-        <v>103</v>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>20</v>
@@ -1362,7 +1914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -1377,38 +1929,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -1423,32 +1975,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -1463,32 +2015,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="1:6">
+      <c r="B38" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
@@ -1497,43 +2049,49 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\前端技术的学习\个人存储\项目\数据库\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B72B5F-903F-43C2-BBC0-336C00D88027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3F7EE5-DA71-48EA-BA44-FF24813996F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
   <si>
     <t>表名</t>
   </si>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>role，query</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>/course</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>role，studentId，writecheck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>增加学生</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -425,18 +417,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>role，username，password，name，email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>username，password</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role，studentId，query</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/homework/submit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -455,6 +439,18 @@
   <si>
     <t>/homework/:workId</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId，writecheck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId，query,page,pageSize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username，password，name，email,role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,7 +826,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1014,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>85</v>
@@ -1036,7 +1032,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>85</v>
@@ -1056,7 +1052,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>89</v>
@@ -1074,13 +1070,13 @@
         <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>87</v>
@@ -1103,16 +1099,16 @@
         <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>91</v>
@@ -1121,16 +1117,16 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>87</v>
@@ -1139,52 +1135,52 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>91</v>
@@ -1193,16 +1189,16 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>87</v>
@@ -1211,37 +1207,37 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1250,10 +1246,10 @@
         <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>90</v>
@@ -1264,36 +1260,36 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1301,7 +1297,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>89</v>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -411,7 +411,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,13 +421,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -921,133 +914,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1052,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1375,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
   <si>
     <t>表名</t>
   </si>
@@ -343,22 +343,25 @@
     <t>emal</t>
   </si>
   <si>
+    <t>Uphone</t>
+  </si>
+  <si>
     <t>Student</t>
   </si>
   <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>studentId</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>studentId</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>major</t>
   </si>
   <si>
     <t>Uno(ID)/Uname(姓名)</t>
@@ -1374,8 +1377,8 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1910,7 +1913,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -1924,9 +1927,6 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1948,12 +1948,12 @@
         <v>109</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -1966,6 +1966,9 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1979,21 +1982,21 @@
         <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -2010,7 +2013,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2019,21 +2022,21 @@
         <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:6">
       <c r="B38" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
@@ -2042,10 +2045,10 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>表名</t>
   </si>
@@ -139,6 +139,9 @@
     <t>Wover（结束时间）</t>
   </si>
   <si>
+    <t>Wcontent(题目)</t>
+  </si>
+  <si>
     <t>Write</t>
   </si>
   <si>
@@ -146,6 +149,15 @@
   </si>
   <si>
     <t>State(学生是否提交作业)</t>
+  </si>
+  <si>
+    <t>Wrcontent(学生写的内容)</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Image_path(图片的url)</t>
   </si>
   <si>
     <t>角色</t>
@@ -1375,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1514,92 +1526,90 @@
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1607,31 +1617,33 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1639,416 +1651,434 @@
       <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="3" t="s">
-        <v>92</v>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="1" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="43.2" spans="1:6">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="1:7">
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>123</v>
+      <c r="E39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/database设计文档.xlsx
+++ b/database设计文档.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>表名</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Wrcontent(学生写的内容)</t>
+  </si>
+  <si>
+    <t>Score(分数)</t>
   </si>
   <si>
     <t>Image</t>
@@ -594,12 +597,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -935,7 +944,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,16 +968,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -977,89 +986,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,6 +1077,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1389,8 +1404,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1548,7 +1563,9 @@
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1556,7 +1573,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -1565,112 +1582,112 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="18.95" customHeight="1" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1678,260 +1695,260 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
+      <c r="A28" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>20</v>
@@ -1943,7 +1960,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -1957,33 +1974,33 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -2009,24 +2026,24 @@
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>23</v>
@@ -2043,30 +2060,30 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:7">
-      <c r="B39" s="5" t="s">
-        <v>125</v>
+      <c r="B39" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>31</v>
@@ -2075,10 +2092,10 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
